--- a/DONE 2-2-2023/AGUILA, JENNIFER.xlsx
+++ b/DONE 2-2-2023/AGUILA, JENNIFER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -186,9 +186,6 @@
     <t>CASUAL</t>
   </si>
   <si>
-    <t>AGUILA, JENNIFER</t>
-  </si>
-  <si>
     <t>SL(4-0-0)</t>
   </si>
   <si>
@@ -286,6 +283,15 @@
   </si>
   <si>
     <t>10/4-8,11/2021</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/30,31/2023</t>
+  </si>
+  <si>
+    <t>AGUILA, JENIFFER</t>
   </si>
 </sst>
 </file>
@@ -3337,10 +3343,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A67" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,7 +3369,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
@@ -3499,7 +3505,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>54.25</v>
+        <v>54.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3509,7 +3515,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3761,7 +3767,7 @@
         <v>43435</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -3843,7 +3849,7 @@
         <v>43525</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -4027,7 +4033,7 @@
         <v>43800</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -4289,7 +4295,7 @@
         <v>44166</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -4551,7 +4557,7 @@
         <v>44531</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -4667,7 +4673,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4815,7 +4821,7 @@
         <v>44896</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -4873,15 +4879,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4889,20 +4899,30 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="39"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D78" s="39">
+        <v>2</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
@@ -5847,8 +5867,8 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A29" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
@@ -5874,7 +5894,7 @@
       </c>
       <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
-        <v>AGUILA, JENNIFER</v>
+        <v>AGUILA, JENIFFER</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
@@ -6056,7 +6076,7 @@
         <v>43132</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39"/>
@@ -6072,13 +6092,13 @@
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="39"/>
@@ -6094,13 +6114,13 @@
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39"/>
@@ -6116,7 +6136,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="11"/>
       <c r="K13" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6124,7 +6144,7 @@
         <v>43160</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
@@ -6148,7 +6168,7 @@
         <v>43191</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39">
@@ -6164,7 +6184,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6172,7 +6192,7 @@
         <v>43344</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="39">
@@ -6188,7 +6208,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6196,7 +6216,7 @@
         <v>43374</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39">
@@ -6212,7 +6232,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6220,7 +6240,7 @@
         <v>43405</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39">
@@ -6242,7 +6262,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39">
@@ -6258,7 +6278,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6284,7 +6304,7 @@
         <v>43466</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39">
@@ -6308,7 +6328,7 @@
         <v>43497</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39">
@@ -6324,13 +6344,13 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
@@ -6346,13 +6366,13 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39">
@@ -6368,7 +6388,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6376,7 +6396,7 @@
         <v>43525</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39">
@@ -6392,7 +6412,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -6400,7 +6420,7 @@
         <v>43556</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
@@ -6422,7 +6442,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39">
@@ -6438,7 +6458,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -6464,7 +6484,7 @@
         <v>43983</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39">
@@ -6480,7 +6500,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -6488,7 +6508,7 @@
         <v>44013</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39">
@@ -6504,7 +6524,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6512,7 +6532,7 @@
         <v>44075</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -6528,7 +6548,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -6554,7 +6574,7 @@
         <v>44378</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39">
@@ -6570,7 +6590,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -6578,7 +6598,7 @@
         <v>44409</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39">
@@ -6594,7 +6614,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -6602,7 +6622,7 @@
         <v>44440</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39">
@@ -6618,7 +6638,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
